--- a/OcorrenciaMensal(ProdutividadePolicial)-São Vicente_2025.xlsx
+++ b/OcorrenciaMensal(ProdutividadePolicial)-São Vicente_2025.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/guilherme_peres_sptech_school/Documents/sptech/Projeto PI - 2 Semestre/vigilante-backend/produtividadePolicial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/guilherme_peres_sptech_school/Documents/sptech/Projeto PI - 2 Semestre/vigilante-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="11_B548577E6FDFE1897D9258AD04C7FF4EDC8D7487" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08FC7987-D250-476E-8B23-003A348C800B}"/>
